--- a/python/grids.xlsx
+++ b/python/grids.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thorn\OneDrive\Dokumenter\GitHub\energy\python\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221367B5-7FA2-4BDD-B34F-A41DD19C174F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -346,11 +352,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -410,12 +416,25 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -462,7 +481,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -494,9 +513,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -528,6 +565,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -703,14 +758,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:HP55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="GT27" workbookViewId="0">
+      <selection activeCell="FW50" activeCellId="1" sqref="GA50 FW50"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="43.88671875" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="8.88671875" style="4"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:224">
+    <row r="1" spans="1:224" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="2">
         <v>41334</v>
@@ -1075,7 +1136,7 @@
       <c r="HO1" s="2"/>
       <c r="HP1" s="2"/>
     </row>
-    <row r="2" spans="1:224">
+    <row r="2" spans="1:224" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1742,11 +1803,11 @@
       <c r="HO2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="HP2" s="1" t="s">
+      <c r="HP2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:224">
+    <row r="4" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2416,11 +2477,11 @@
       <c r="HO4">
         <v>0</v>
       </c>
-      <c r="HP4">
+      <c r="HP4" s="4">
         <v>45825</v>
       </c>
     </row>
-    <row r="5" spans="1:224">
+    <row r="5" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -3090,11 +3151,11 @@
       <c r="HO5">
         <v>500</v>
       </c>
-      <c r="HP5">
+      <c r="HP5" s="4">
         <v>97544</v>
       </c>
     </row>
-    <row r="6" spans="1:224">
+    <row r="6" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -3764,11 +3825,11 @@
       <c r="HO6">
         <v>2069</v>
       </c>
-      <c r="HP6">
+      <c r="HP6" s="4">
         <v>15903</v>
       </c>
     </row>
-    <row r="7" spans="1:224">
+    <row r="7" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -4438,11 +4499,11 @@
       <c r="HO7">
         <v>0</v>
       </c>
-      <c r="HP7">
+      <c r="HP7" s="4">
         <v>22222</v>
       </c>
     </row>
-    <row r="8" spans="1:224">
+    <row r="8" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -5112,11 +5173,11 @@
       <c r="HO8">
         <v>0</v>
       </c>
-      <c r="HP8">
+      <c r="HP8" s="4">
         <v>4504</v>
       </c>
     </row>
-    <row r="9" spans="1:224">
+    <row r="9" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -5786,11 +5847,11 @@
       <c r="HO9">
         <v>199</v>
       </c>
-      <c r="HP9">
+      <c r="HP9" s="5">
         <v>408060</v>
       </c>
     </row>
-    <row r="10" spans="1:224">
+    <row r="10" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -6460,11 +6521,11 @@
       <c r="HO10">
         <v>0</v>
       </c>
-      <c r="HP10">
+      <c r="HP10" s="4">
         <v>3826</v>
       </c>
     </row>
-    <row r="11" spans="1:224">
+    <row r="11" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -7134,11 +7195,11 @@
       <c r="HO11">
         <v>0</v>
       </c>
-      <c r="HP11">
+      <c r="HP11" s="4">
         <v>2840</v>
       </c>
     </row>
-    <row r="12" spans="1:224">
+    <row r="12" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -7808,11 +7869,11 @@
       <c r="HO12">
         <v>4405</v>
       </c>
-      <c r="HP12">
+      <c r="HP12" s="5">
         <v>170231</v>
       </c>
     </row>
-    <row r="13" spans="1:224">
+    <row r="13" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -8482,11 +8543,11 @@
       <c r="HO13">
         <v>262</v>
       </c>
-      <c r="HP13">
+      <c r="HP13" s="4">
         <v>41521</v>
       </c>
     </row>
-    <row r="14" spans="1:224">
+    <row r="14" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -9156,11 +9217,11 @@
       <c r="HO14">
         <v>1</v>
       </c>
-      <c r="HP14">
+      <c r="HP14" s="4">
         <v>21169</v>
       </c>
     </row>
-    <row r="15" spans="1:224">
+    <row r="15" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -9830,11 +9891,11 @@
       <c r="HO15">
         <v>2502</v>
       </c>
-      <c r="HP15">
+      <c r="HP15" s="4">
         <v>141276</v>
       </c>
     </row>
-    <row r="16" spans="1:224">
+    <row r="16" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -10504,11 +10565,11 @@
       <c r="HO16">
         <v>1100</v>
       </c>
-      <c r="HP16">
+      <c r="HP16" s="4">
         <v>58776</v>
       </c>
     </row>
-    <row r="17" spans="1:224">
+    <row r="17" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -11178,11 +11239,11 @@
       <c r="HO17">
         <v>94</v>
       </c>
-      <c r="HP17">
+      <c r="HP17" s="4">
         <v>28299</v>
       </c>
     </row>
-    <row r="18" spans="1:224">
+    <row r="18" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -11852,11 +11913,11 @@
       <c r="HO18">
         <v>0</v>
       </c>
-      <c r="HP18">
+      <c r="HP18" s="4">
         <v>4939</v>
       </c>
     </row>
-    <row r="19" spans="1:224">
+    <row r="19" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -12526,11 +12587,11 @@
       <c r="HO19">
         <v>0</v>
       </c>
-      <c r="HP19">
+      <c r="HP19" s="4">
         <v>8707</v>
       </c>
     </row>
-    <row r="20" spans="1:224">
+    <row r="20" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -13200,11 +13261,11 @@
       <c r="HO20">
         <v>0</v>
       </c>
-      <c r="HP20">
+      <c r="HP20" s="5">
         <v>278676</v>
       </c>
     </row>
-    <row r="21" spans="1:224">
+    <row r="21" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -13874,11 +13935,11 @@
       <c r="HO21">
         <v>50</v>
       </c>
-      <c r="HP21">
+      <c r="HP21" s="4">
         <v>30094</v>
       </c>
     </row>
-    <row r="22" spans="1:224">
+    <row r="22" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -14548,11 +14609,11 @@
       <c r="HO22">
         <v>18432</v>
       </c>
-      <c r="HP22">
+      <c r="HP22" s="4">
         <v>51518</v>
       </c>
     </row>
-    <row r="23" spans="1:224">
+    <row r="23" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -15222,11 +15283,11 @@
       <c r="HO23">
         <v>0</v>
       </c>
-      <c r="HP23">
+      <c r="HP23" s="4">
         <v>19616</v>
       </c>
     </row>
-    <row r="24" spans="1:224">
+    <row r="24" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -15896,11 +15957,11 @@
       <c r="HO24">
         <v>0</v>
       </c>
-      <c r="HP24">
+      <c r="HP24" s="4">
         <v>6311</v>
       </c>
     </row>
-    <row r="25" spans="1:224">
+    <row r="25" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -16570,11 +16631,11 @@
       <c r="HO25">
         <v>0</v>
       </c>
-      <c r="HP25">
+      <c r="HP25" s="4">
         <v>1877</v>
       </c>
     </row>
-    <row r="26" spans="1:224">
+    <row r="26" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -17244,11 +17305,11 @@
       <c r="HO26">
         <v>0</v>
       </c>
-      <c r="HP26">
+      <c r="HP26" s="4">
         <v>3055</v>
       </c>
     </row>
-    <row r="27" spans="1:224">
+    <row r="27" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
@@ -17918,11 +17979,11 @@
       <c r="HO27">
         <v>0</v>
       </c>
-      <c r="HP27">
+      <c r="HP27" s="4">
         <v>1863</v>
       </c>
     </row>
-    <row r="28" spans="1:224">
+    <row r="28" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
@@ -18592,11 +18653,11 @@
       <c r="HO28">
         <v>0</v>
       </c>
-      <c r="HP28">
+      <c r="HP28" s="4">
         <v>2331</v>
       </c>
     </row>
-    <row r="29" spans="1:224">
+    <row r="29" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -19266,11 +19327,11 @@
       <c r="HO29">
         <v>0</v>
       </c>
-      <c r="HP29">
+      <c r="HP29" s="4">
         <v>2369</v>
       </c>
     </row>
-    <row r="30" spans="1:224">
+    <row r="30" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -19940,11 +20001,11 @@
       <c r="HO30">
         <v>0</v>
       </c>
-      <c r="HP30">
+      <c r="HP30" s="4">
         <v>1390</v>
       </c>
     </row>
-    <row r="31" spans="1:224">
+    <row r="31" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
@@ -20614,11 +20675,11 @@
       <c r="HO31">
         <v>0</v>
       </c>
-      <c r="HP31">
+      <c r="HP31" s="4">
         <v>2371</v>
       </c>
     </row>
-    <row r="32" spans="1:224">
+    <row r="32" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
@@ -21288,11 +21349,11 @@
       <c r="HO32">
         <v>0</v>
       </c>
-      <c r="HP32">
+      <c r="HP32" s="4">
         <v>2258</v>
       </c>
     </row>
-    <row r="33" spans="1:224">
+    <row r="33" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
@@ -21962,11 +22023,11 @@
       <c r="HO33">
         <v>10</v>
       </c>
-      <c r="HP33">
+      <c r="HP33" s="4">
         <v>16378</v>
       </c>
     </row>
-    <row r="34" spans="1:224">
+    <row r="34" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
@@ -22636,11 +22697,11 @@
       <c r="HO34">
         <v>4782</v>
       </c>
-      <c r="HP34">
+      <c r="HP34" s="4">
         <v>12382</v>
       </c>
     </row>
-    <row r="35" spans="1:224">
+    <row r="35" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
@@ -23310,11 +23371,11 @@
       <c r="HO35">
         <v>3059</v>
       </c>
-      <c r="HP35">
+      <c r="HP35" s="4">
         <v>31969</v>
       </c>
     </row>
-    <row r="36" spans="1:224">
+    <row r="36" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
@@ -23984,11 +24045,11 @@
       <c r="HO36">
         <v>15938</v>
       </c>
-      <c r="HP36">
+      <c r="HP36" s="4">
         <v>94967</v>
       </c>
     </row>
-    <row r="37" spans="1:224">
+    <row r="37" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
@@ -24658,11 +24719,11 @@
       <c r="HO37">
         <v>42</v>
       </c>
-      <c r="HP37">
+      <c r="HP37" s="4">
         <v>14589</v>
       </c>
     </row>
-    <row r="38" spans="1:224">
+    <row r="38" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>39</v>
       </c>
@@ -25332,11 +25393,11 @@
       <c r="HO38">
         <v>120</v>
       </c>
-      <c r="HP38">
+      <c r="HP38" s="4">
         <v>10044</v>
       </c>
     </row>
-    <row r="39" spans="1:224">
+    <row r="39" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
@@ -26006,11 +26067,11 @@
       <c r="HO39">
         <v>13447</v>
       </c>
-      <c r="HP39">
+      <c r="HP39" s="4">
         <v>81480</v>
       </c>
     </row>
-    <row r="40" spans="1:224">
+    <row r="40" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
@@ -26680,11 +26741,11 @@
       <c r="HO40">
         <v>24</v>
       </c>
-      <c r="HP40">
+      <c r="HP40" s="4">
         <v>3932</v>
       </c>
     </row>
-    <row r="41" spans="1:224">
+    <row r="41" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
@@ -27354,11 +27415,11 @@
       <c r="HO41">
         <v>7</v>
       </c>
-      <c r="HP41">
+      <c r="HP41" s="4">
         <v>2540</v>
       </c>
     </row>
-    <row r="42" spans="1:224">
+    <row r="42" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>43</v>
       </c>
@@ -28028,11 +28089,11 @@
       <c r="HO42">
         <v>3</v>
       </c>
-      <c r="HP42">
+      <c r="HP42" s="4">
         <v>1625</v>
       </c>
     </row>
-    <row r="43" spans="1:224">
+    <row r="43" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
@@ -28702,11 +28763,11 @@
       <c r="HO43">
         <v>37</v>
       </c>
-      <c r="HP43">
+      <c r="HP43" s="4">
         <v>1546</v>
       </c>
     </row>
-    <row r="44" spans="1:224">
+    <row r="44" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>45</v>
       </c>
@@ -29376,11 +29437,11 @@
       <c r="HO44">
         <v>15</v>
       </c>
-      <c r="HP44">
+      <c r="HP44" s="4">
         <v>887</v>
       </c>
     </row>
-    <row r="45" spans="1:224">
+    <row r="45" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>46</v>
       </c>
@@ -30050,11 +30111,11 @@
       <c r="HO45">
         <v>12</v>
       </c>
-      <c r="HP45">
+      <c r="HP45" s="4">
         <v>1260</v>
       </c>
     </row>
-    <row r="46" spans="1:224">
+    <row r="46" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>47</v>
       </c>
@@ -30724,11 +30785,11 @@
       <c r="HO46">
         <v>73</v>
       </c>
-      <c r="HP46">
+      <c r="HP46" s="4">
         <v>1137</v>
       </c>
     </row>
-    <row r="47" spans="1:224">
+    <row r="47" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>48</v>
       </c>
@@ -31398,11 +31459,11 @@
       <c r="HO47">
         <v>350481</v>
       </c>
-      <c r="HP47">
+      <c r="HP47" s="5">
         <v>394195</v>
       </c>
     </row>
-    <row r="48" spans="1:224">
+    <row r="48" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>49</v>
       </c>
@@ -32072,11 +32133,11 @@
       <c r="HO48">
         <v>0</v>
       </c>
-      <c r="HP48">
+      <c r="HP48" s="4">
         <v>15054</v>
       </c>
     </row>
-    <row r="49" spans="1:224">
+    <row r="49" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>50</v>
       </c>
@@ -32746,11 +32807,11 @@
       <c r="HO49">
         <v>17943</v>
       </c>
-      <c r="HP49">
+      <c r="HP49" s="4">
         <v>19040</v>
       </c>
     </row>
-    <row r="50" spans="1:224">
+    <row r="50" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>51</v>
       </c>
@@ -33420,11 +33481,11 @@
       <c r="HO50">
         <v>596267</v>
       </c>
-      <c r="HP50">
+      <c r="HP50" s="5">
         <v>1023735</v>
       </c>
     </row>
-    <row r="51" spans="1:224">
+    <row r="51" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>52</v>
       </c>
@@ -34094,11 +34155,11 @@
       <c r="HO51">
         <v>1</v>
       </c>
-      <c r="HP51">
+      <c r="HP51" s="4">
         <v>8246</v>
       </c>
     </row>
-    <row r="52" spans="1:224">
+    <row r="52" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>53</v>
       </c>
@@ -34768,11 +34829,11 @@
       <c r="HO52">
         <v>4182</v>
       </c>
-      <c r="HP52">
+      <c r="HP52" s="4">
         <v>17306</v>
       </c>
     </row>
-    <row r="53" spans="1:224">
+    <row r="53" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>54</v>
       </c>
@@ -35442,11 +35503,11 @@
       <c r="HO53">
         <v>1</v>
       </c>
-      <c r="HP53">
+      <c r="HP53" s="4">
         <v>5288</v>
       </c>
     </row>
-    <row r="54" spans="1:224">
+    <row r="54" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>55</v>
       </c>
@@ -36116,11 +36177,11 @@
       <c r="HO54">
         <v>0</v>
       </c>
-      <c r="HP54">
+      <c r="HP54" s="4">
         <v>26022</v>
       </c>
     </row>
-    <row r="55" spans="1:224">
+    <row r="55" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
@@ -36790,83 +36851,84 @@
       <c r="HO55">
         <v>0</v>
       </c>
-      <c r="HP55">
+      <c r="HP55" s="4">
         <v>28701</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="GW1:GZ1"/>
+    <mergeCell ref="HA1:HD1"/>
+    <mergeCell ref="HE1:HH1"/>
+    <mergeCell ref="HI1:HL1"/>
+    <mergeCell ref="HM1:HP1"/>
+    <mergeCell ref="GC1:GF1"/>
+    <mergeCell ref="GG1:GJ1"/>
+    <mergeCell ref="GK1:GN1"/>
+    <mergeCell ref="GO1:GR1"/>
+    <mergeCell ref="GS1:GV1"/>
+    <mergeCell ref="FL1:FN1"/>
+    <mergeCell ref="FO1:FQ1"/>
+    <mergeCell ref="FR1:FT1"/>
+    <mergeCell ref="FU1:FX1"/>
+    <mergeCell ref="FY1:GB1"/>
+    <mergeCell ref="EW1:EY1"/>
+    <mergeCell ref="EZ1:FB1"/>
+    <mergeCell ref="FC1:FE1"/>
+    <mergeCell ref="FF1:FH1"/>
+    <mergeCell ref="FI1:FK1"/>
+    <mergeCell ref="EH1:EJ1"/>
+    <mergeCell ref="EK1:EM1"/>
+    <mergeCell ref="EN1:EP1"/>
+    <mergeCell ref="EQ1:ES1"/>
+    <mergeCell ref="ET1:EV1"/>
+    <mergeCell ref="DS1:DU1"/>
+    <mergeCell ref="DV1:DX1"/>
+    <mergeCell ref="DY1:EA1"/>
+    <mergeCell ref="EB1:ED1"/>
+    <mergeCell ref="EE1:EG1"/>
+    <mergeCell ref="DD1:DF1"/>
+    <mergeCell ref="DG1:DI1"/>
+    <mergeCell ref="DJ1:DL1"/>
+    <mergeCell ref="DM1:DO1"/>
+    <mergeCell ref="DP1:DR1"/>
+    <mergeCell ref="CO1:CQ1"/>
+    <mergeCell ref="CR1:CT1"/>
+    <mergeCell ref="CU1:CW1"/>
+    <mergeCell ref="CX1:CZ1"/>
+    <mergeCell ref="DA1:DC1"/>
+    <mergeCell ref="BZ1:CB1"/>
+    <mergeCell ref="CC1:CE1"/>
+    <mergeCell ref="CF1:CH1"/>
+    <mergeCell ref="CI1:CK1"/>
+    <mergeCell ref="CL1:CN1"/>
+    <mergeCell ref="BK1:BM1"/>
+    <mergeCell ref="BN1:BP1"/>
+    <mergeCell ref="BQ1:BS1"/>
+    <mergeCell ref="BT1:BV1"/>
+    <mergeCell ref="BW1:BY1"/>
+    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="AY1:BA1"/>
+    <mergeCell ref="BB1:BD1"/>
+    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="BH1:BJ1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AP1:AR1"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AF1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AP1:AR1"/>
-    <mergeCell ref="AS1:AU1"/>
-    <mergeCell ref="AV1:AX1"/>
-    <mergeCell ref="AY1:BA1"/>
-    <mergeCell ref="BB1:BD1"/>
-    <mergeCell ref="BE1:BG1"/>
-    <mergeCell ref="BH1:BJ1"/>
-    <mergeCell ref="BK1:BM1"/>
-    <mergeCell ref="BN1:BP1"/>
-    <mergeCell ref="BQ1:BS1"/>
-    <mergeCell ref="BT1:BV1"/>
-    <mergeCell ref="BW1:BY1"/>
-    <mergeCell ref="BZ1:CB1"/>
-    <mergeCell ref="CC1:CE1"/>
-    <mergeCell ref="CF1:CH1"/>
-    <mergeCell ref="CI1:CK1"/>
-    <mergeCell ref="CL1:CN1"/>
-    <mergeCell ref="CO1:CQ1"/>
-    <mergeCell ref="CR1:CT1"/>
-    <mergeCell ref="CU1:CW1"/>
-    <mergeCell ref="CX1:CZ1"/>
-    <mergeCell ref="DA1:DC1"/>
-    <mergeCell ref="DD1:DF1"/>
-    <mergeCell ref="DG1:DI1"/>
-    <mergeCell ref="DJ1:DL1"/>
-    <mergeCell ref="DM1:DO1"/>
-    <mergeCell ref="DP1:DR1"/>
-    <mergeCell ref="DS1:DU1"/>
-    <mergeCell ref="DV1:DX1"/>
-    <mergeCell ref="DY1:EA1"/>
-    <mergeCell ref="EB1:ED1"/>
-    <mergeCell ref="EE1:EG1"/>
-    <mergeCell ref="EH1:EJ1"/>
-    <mergeCell ref="EK1:EM1"/>
-    <mergeCell ref="EN1:EP1"/>
-    <mergeCell ref="EQ1:ES1"/>
-    <mergeCell ref="ET1:EV1"/>
-    <mergeCell ref="EW1:EY1"/>
-    <mergeCell ref="EZ1:FB1"/>
-    <mergeCell ref="FC1:FE1"/>
-    <mergeCell ref="FF1:FH1"/>
-    <mergeCell ref="FI1:FK1"/>
-    <mergeCell ref="FL1:FN1"/>
-    <mergeCell ref="FO1:FQ1"/>
-    <mergeCell ref="FR1:FT1"/>
-    <mergeCell ref="FU1:FX1"/>
-    <mergeCell ref="FY1:GB1"/>
-    <mergeCell ref="GC1:GF1"/>
-    <mergeCell ref="GG1:GJ1"/>
-    <mergeCell ref="GK1:GN1"/>
-    <mergeCell ref="GO1:GR1"/>
-    <mergeCell ref="GS1:GV1"/>
-    <mergeCell ref="GW1:GZ1"/>
-    <mergeCell ref="HA1:HD1"/>
-    <mergeCell ref="HE1:HH1"/>
-    <mergeCell ref="HI1:HL1"/>
-    <mergeCell ref="HM1:HP1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/python/grids.xlsx
+++ b/python/grids.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thorn\OneDrive\Dokumenter\GitHub\energy\python\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA36148-7613-423A-A1D8-A7F8BB6BEB14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -346,11 +352,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,6 +422,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -462,7 +476,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -494,9 +508,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -528,6 +560,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -703,14 +753,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:HR55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="GV39" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:HR49"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="43.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:226">
+    <row r="1" spans="1:226" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="2">
         <v>41334</v>
@@ -1077,7 +1132,7 @@
       <c r="HQ1" s="2"/>
       <c r="HR1" s="2"/>
     </row>
-    <row r="2" spans="1:226">
+    <row r="2" spans="1:226" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1754,7 +1809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:226">
+    <row r="4" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2434,7 +2489,7 @@
         <v>45825</v>
       </c>
     </row>
-    <row r="5" spans="1:226">
+    <row r="5" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -3114,7 +3169,7 @@
         <v>97544</v>
       </c>
     </row>
-    <row r="6" spans="1:226">
+    <row r="6" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -3794,7 +3849,7 @@
         <v>15903</v>
       </c>
     </row>
-    <row r="7" spans="1:226">
+    <row r="7" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -4474,7 +4529,7 @@
         <v>22222</v>
       </c>
     </row>
-    <row r="8" spans="1:226">
+    <row r="8" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -5154,7 +5209,7 @@
         <v>4504</v>
       </c>
     </row>
-    <row r="9" spans="1:226">
+    <row r="9" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -5834,7 +5889,7 @@
         <v>408060</v>
       </c>
     </row>
-    <row r="10" spans="1:226">
+    <row r="10" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -6514,7 +6569,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="11" spans="1:226">
+    <row r="11" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -7194,7 +7249,7 @@
         <v>2840</v>
       </c>
     </row>
-    <row r="12" spans="1:226">
+    <row r="12" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -7874,7 +7929,7 @@
         <v>170231</v>
       </c>
     </row>
-    <row r="13" spans="1:226">
+    <row r="13" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -8554,7 +8609,7 @@
         <v>41521</v>
       </c>
     </row>
-    <row r="14" spans="1:226">
+    <row r="14" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -9234,7 +9289,7 @@
         <v>21169</v>
       </c>
     </row>
-    <row r="15" spans="1:226">
+    <row r="15" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -9914,7 +9969,7 @@
         <v>141276</v>
       </c>
     </row>
-    <row r="16" spans="1:226">
+    <row r="16" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -10594,7 +10649,7 @@
         <v>58776</v>
       </c>
     </row>
-    <row r="17" spans="1:226">
+    <row r="17" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -11274,7 +11329,7 @@
         <v>28299</v>
       </c>
     </row>
-    <row r="18" spans="1:226">
+    <row r="18" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -11954,7 +12009,7 @@
         <v>4939</v>
       </c>
     </row>
-    <row r="19" spans="1:226">
+    <row r="19" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -12634,7 +12689,7 @@
         <v>8707</v>
       </c>
     </row>
-    <row r="20" spans="1:226">
+    <row r="20" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -13314,7 +13369,7 @@
         <v>278676</v>
       </c>
     </row>
-    <row r="21" spans="1:226">
+    <row r="21" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -13994,7 +14049,7 @@
         <v>30094</v>
       </c>
     </row>
-    <row r="22" spans="1:226">
+    <row r="22" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -14674,7 +14729,7 @@
         <v>51518</v>
       </c>
     </row>
-    <row r="23" spans="1:226">
+    <row r="23" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -15354,7 +15409,7 @@
         <v>19616</v>
       </c>
     </row>
-    <row r="24" spans="1:226">
+    <row r="24" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -16034,7 +16089,7 @@
         <v>6311</v>
       </c>
     </row>
-    <row r="25" spans="1:226">
+    <row r="25" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -16714,7 +16769,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="26" spans="1:226">
+    <row r="26" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -17394,7 +17449,7 @@
         <v>3055</v>
       </c>
     </row>
-    <row r="27" spans="1:226">
+    <row r="27" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
@@ -18074,7 +18129,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="28" spans="1:226">
+    <row r="28" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
@@ -18754,7 +18809,7 @@
         <v>2331</v>
       </c>
     </row>
-    <row r="29" spans="1:226">
+    <row r="29" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -19434,7 +19489,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="30" spans="1:226">
+    <row r="30" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -20114,7 +20169,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="31" spans="1:226">
+    <row r="31" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
@@ -20794,7 +20849,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="32" spans="1:226">
+    <row r="32" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
@@ -21474,7 +21529,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="33" spans="1:226">
+    <row r="33" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
@@ -22154,7 +22209,7 @@
         <v>16378</v>
       </c>
     </row>
-    <row r="34" spans="1:226">
+    <row r="34" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
@@ -22834,7 +22889,7 @@
         <v>12382</v>
       </c>
     </row>
-    <row r="35" spans="1:226">
+    <row r="35" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
@@ -23514,7 +23569,7 @@
         <v>31969</v>
       </c>
     </row>
-    <row r="36" spans="1:226">
+    <row r="36" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
@@ -24194,7 +24249,7 @@
         <v>94967</v>
       </c>
     </row>
-    <row r="37" spans="1:226">
+    <row r="37" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
@@ -24874,7 +24929,7 @@
         <v>14589</v>
       </c>
     </row>
-    <row r="38" spans="1:226">
+    <row r="38" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>39</v>
       </c>
@@ -25554,7 +25609,7 @@
         <v>10044</v>
       </c>
     </row>
-    <row r="39" spans="1:226">
+    <row r="39" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
@@ -26234,7 +26289,7 @@
         <v>81480</v>
       </c>
     </row>
-    <row r="40" spans="1:226">
+    <row r="40" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
@@ -26914,7 +26969,7 @@
         <v>3932</v>
       </c>
     </row>
-    <row r="41" spans="1:226">
+    <row r="41" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
@@ -27594,7 +27649,7 @@
         <v>2540</v>
       </c>
     </row>
-    <row r="42" spans="1:226">
+    <row r="42" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>43</v>
       </c>
@@ -28274,7 +28329,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="43" spans="1:226">
+    <row r="43" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
@@ -28954,7 +29009,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="44" spans="1:226">
+    <row r="44" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>45</v>
       </c>
@@ -29634,7 +29689,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="45" spans="1:226">
+    <row r="45" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>46</v>
       </c>
@@ -30314,7 +30369,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="46" spans="1:226">
+    <row r="46" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>47</v>
       </c>
@@ -30994,7 +31049,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="47" spans="1:226">
+    <row r="47" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>48</v>
       </c>
@@ -31674,7 +31729,7 @@
         <v>394195</v>
       </c>
     </row>
-    <row r="48" spans="1:226">
+    <row r="48" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>49</v>
       </c>
@@ -32354,7 +32409,7 @@
         <v>15054</v>
       </c>
     </row>
-    <row r="49" spans="1:226">
+    <row r="49" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>50</v>
       </c>
@@ -33034,7 +33089,7 @@
         <v>19040</v>
       </c>
     </row>
-    <row r="50" spans="1:226">
+    <row r="50" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>51</v>
       </c>
@@ -33714,7 +33769,7 @@
         <v>1023735</v>
       </c>
     </row>
-    <row r="51" spans="1:226">
+    <row r="51" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>52</v>
       </c>
@@ -34394,7 +34449,7 @@
         <v>8246</v>
       </c>
     </row>
-    <row r="52" spans="1:226">
+    <row r="52" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>53</v>
       </c>
@@ -35074,7 +35129,7 @@
         <v>17306</v>
       </c>
     </row>
-    <row r="53" spans="1:226">
+    <row r="53" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>54</v>
       </c>
@@ -35754,7 +35809,7 @@
         <v>5288</v>
       </c>
     </row>
-    <row r="54" spans="1:226">
+    <row r="54" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>55</v>
       </c>
@@ -36434,7 +36489,7 @@
         <v>26022</v>
       </c>
     </row>
-    <row r="55" spans="1:226">
+    <row r="55" spans="1:226" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
@@ -37116,76 +37171,76 @@
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="GY1:HB1"/>
+    <mergeCell ref="HC1:HF1"/>
+    <mergeCell ref="HG1:HJ1"/>
+    <mergeCell ref="HK1:HN1"/>
+    <mergeCell ref="HO1:HR1"/>
+    <mergeCell ref="GE1:GH1"/>
+    <mergeCell ref="GI1:GL1"/>
+    <mergeCell ref="GM1:GP1"/>
+    <mergeCell ref="GQ1:GT1"/>
+    <mergeCell ref="GU1:GX1"/>
+    <mergeCell ref="FL1:FN1"/>
+    <mergeCell ref="FO1:FR1"/>
+    <mergeCell ref="FS1:FV1"/>
+    <mergeCell ref="FW1:FZ1"/>
+    <mergeCell ref="GA1:GD1"/>
+    <mergeCell ref="EW1:EY1"/>
+    <mergeCell ref="EZ1:FB1"/>
+    <mergeCell ref="FC1:FE1"/>
+    <mergeCell ref="FF1:FH1"/>
+    <mergeCell ref="FI1:FK1"/>
+    <mergeCell ref="EH1:EJ1"/>
+    <mergeCell ref="EK1:EM1"/>
+    <mergeCell ref="EN1:EP1"/>
+    <mergeCell ref="EQ1:ES1"/>
+    <mergeCell ref="ET1:EV1"/>
+    <mergeCell ref="DS1:DU1"/>
+    <mergeCell ref="DV1:DX1"/>
+    <mergeCell ref="DY1:EA1"/>
+    <mergeCell ref="EB1:ED1"/>
+    <mergeCell ref="EE1:EG1"/>
+    <mergeCell ref="DD1:DF1"/>
+    <mergeCell ref="DG1:DI1"/>
+    <mergeCell ref="DJ1:DL1"/>
+    <mergeCell ref="DM1:DO1"/>
+    <mergeCell ref="DP1:DR1"/>
+    <mergeCell ref="CO1:CQ1"/>
+    <mergeCell ref="CR1:CT1"/>
+    <mergeCell ref="CU1:CW1"/>
+    <mergeCell ref="CX1:CZ1"/>
+    <mergeCell ref="DA1:DC1"/>
+    <mergeCell ref="BZ1:CB1"/>
+    <mergeCell ref="CC1:CE1"/>
+    <mergeCell ref="CF1:CH1"/>
+    <mergeCell ref="CI1:CK1"/>
+    <mergeCell ref="CL1:CN1"/>
+    <mergeCell ref="BK1:BM1"/>
+    <mergeCell ref="BN1:BP1"/>
+    <mergeCell ref="BQ1:BS1"/>
+    <mergeCell ref="BT1:BV1"/>
+    <mergeCell ref="BW1:BY1"/>
+    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="AY1:BA1"/>
+    <mergeCell ref="BB1:BD1"/>
+    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="BH1:BJ1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AP1:AR1"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AF1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AP1:AR1"/>
-    <mergeCell ref="AS1:AU1"/>
-    <mergeCell ref="AV1:AX1"/>
-    <mergeCell ref="AY1:BA1"/>
-    <mergeCell ref="BB1:BD1"/>
-    <mergeCell ref="BE1:BG1"/>
-    <mergeCell ref="BH1:BJ1"/>
-    <mergeCell ref="BK1:BM1"/>
-    <mergeCell ref="BN1:BP1"/>
-    <mergeCell ref="BQ1:BS1"/>
-    <mergeCell ref="BT1:BV1"/>
-    <mergeCell ref="BW1:BY1"/>
-    <mergeCell ref="BZ1:CB1"/>
-    <mergeCell ref="CC1:CE1"/>
-    <mergeCell ref="CF1:CH1"/>
-    <mergeCell ref="CI1:CK1"/>
-    <mergeCell ref="CL1:CN1"/>
-    <mergeCell ref="CO1:CQ1"/>
-    <mergeCell ref="CR1:CT1"/>
-    <mergeCell ref="CU1:CW1"/>
-    <mergeCell ref="CX1:CZ1"/>
-    <mergeCell ref="DA1:DC1"/>
-    <mergeCell ref="DD1:DF1"/>
-    <mergeCell ref="DG1:DI1"/>
-    <mergeCell ref="DJ1:DL1"/>
-    <mergeCell ref="DM1:DO1"/>
-    <mergeCell ref="DP1:DR1"/>
-    <mergeCell ref="DS1:DU1"/>
-    <mergeCell ref="DV1:DX1"/>
-    <mergeCell ref="DY1:EA1"/>
-    <mergeCell ref="EB1:ED1"/>
-    <mergeCell ref="EE1:EG1"/>
-    <mergeCell ref="EH1:EJ1"/>
-    <mergeCell ref="EK1:EM1"/>
-    <mergeCell ref="EN1:EP1"/>
-    <mergeCell ref="EQ1:ES1"/>
-    <mergeCell ref="ET1:EV1"/>
-    <mergeCell ref="EW1:EY1"/>
-    <mergeCell ref="EZ1:FB1"/>
-    <mergeCell ref="FC1:FE1"/>
-    <mergeCell ref="FF1:FH1"/>
-    <mergeCell ref="FI1:FK1"/>
-    <mergeCell ref="FL1:FN1"/>
-    <mergeCell ref="FO1:FR1"/>
-    <mergeCell ref="FS1:FV1"/>
-    <mergeCell ref="FW1:FZ1"/>
-    <mergeCell ref="GA1:GD1"/>
-    <mergeCell ref="GE1:GH1"/>
-    <mergeCell ref="GI1:GL1"/>
-    <mergeCell ref="GM1:GP1"/>
-    <mergeCell ref="GQ1:GT1"/>
-    <mergeCell ref="GU1:GX1"/>
-    <mergeCell ref="GY1:HB1"/>
-    <mergeCell ref="HC1:HF1"/>
-    <mergeCell ref="HG1:HJ1"/>
-    <mergeCell ref="HK1:HN1"/>
-    <mergeCell ref="HO1:HR1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/python/grids.xlsx
+++ b/python/grids.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thorn\OneDrive\Dokumenter\GitHub\energy\python\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA36148-7613-423A-A1D8-A7F8BB6BEB14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -352,11 +346,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,14 +416,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -476,7 +462,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -508,27 +494,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -560,24 +528,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -753,19 +703,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:HR55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="GV39" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:HR49"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="43.88671875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:226">
       <c r="B1" s="1"/>
       <c r="C1" s="2">
         <v>41334</v>
@@ -1132,7 +1077,7 @@
       <c r="HQ1" s="2"/>
       <c r="HR1" s="2"/>
     </row>
-    <row r="2" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:226">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1809,7 +1754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:226">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2489,7 +2434,7 @@
         <v>45825</v>
       </c>
     </row>
-    <row r="5" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:226">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -3169,7 +3114,7 @@
         <v>97544</v>
       </c>
     </row>
-    <row r="6" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:226">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -3849,7 +3794,7 @@
         <v>15903</v>
       </c>
     </row>
-    <row r="7" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:226">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -4529,7 +4474,7 @@
         <v>22222</v>
       </c>
     </row>
-    <row r="8" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:226">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -5209,7 +5154,7 @@
         <v>4504</v>
       </c>
     </row>
-    <row r="9" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:226">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -5889,7 +5834,7 @@
         <v>408060</v>
       </c>
     </row>
-    <row r="10" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:226">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -6569,7 +6514,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="11" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:226">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -7249,7 +7194,7 @@
         <v>2840</v>
       </c>
     </row>
-    <row r="12" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:226">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -7929,7 +7874,7 @@
         <v>170231</v>
       </c>
     </row>
-    <row r="13" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:226">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -8609,7 +8554,7 @@
         <v>41521</v>
       </c>
     </row>
-    <row r="14" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:226">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -9289,7 +9234,7 @@
         <v>21169</v>
       </c>
     </row>
-    <row r="15" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:226">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -9969,7 +9914,7 @@
         <v>141276</v>
       </c>
     </row>
-    <row r="16" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:226">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -10649,7 +10594,7 @@
         <v>58776</v>
       </c>
     </row>
-    <row r="17" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:226">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -11329,7 +11274,7 @@
         <v>28299</v>
       </c>
     </row>
-    <row r="18" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:226">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -12009,7 +11954,7 @@
         <v>4939</v>
       </c>
     </row>
-    <row r="19" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:226">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -12689,7 +12634,7 @@
         <v>8707</v>
       </c>
     </row>
-    <row r="20" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:226">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -13369,7 +13314,7 @@
         <v>278676</v>
       </c>
     </row>
-    <row r="21" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:226">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -14049,7 +13994,7 @@
         <v>30094</v>
       </c>
     </row>
-    <row r="22" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:226">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -14729,7 +14674,7 @@
         <v>51518</v>
       </c>
     </row>
-    <row r="23" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:226">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -15409,7 +15354,7 @@
         <v>19616</v>
       </c>
     </row>
-    <row r="24" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:226">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -16089,7 +16034,7 @@
         <v>6311</v>
       </c>
     </row>
-    <row r="25" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:226">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -16769,7 +16714,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="26" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:226">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -17449,7 +17394,7 @@
         <v>3055</v>
       </c>
     </row>
-    <row r="27" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:226">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
@@ -18129,7 +18074,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="28" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:226">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
@@ -18809,7 +18754,7 @@
         <v>2331</v>
       </c>
     </row>
-    <row r="29" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:226">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -19489,7 +19434,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="30" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:226">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -20169,7 +20114,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="31" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:226">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
@@ -20849,7 +20794,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="32" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:226">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
@@ -21529,7 +21474,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="33" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:226">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
@@ -22209,7 +22154,7 @@
         <v>16378</v>
       </c>
     </row>
-    <row r="34" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:226">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
@@ -22889,7 +22834,7 @@
         <v>12382</v>
       </c>
     </row>
-    <row r="35" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:226">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
@@ -23569,7 +23514,7 @@
         <v>31969</v>
       </c>
     </row>
-    <row r="36" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:226">
       <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
@@ -24249,7 +24194,7 @@
         <v>94967</v>
       </c>
     </row>
-    <row r="37" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:226">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
@@ -24929,7 +24874,7 @@
         <v>14589</v>
       </c>
     </row>
-    <row r="38" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:226">
       <c r="A38" s="1" t="s">
         <v>39</v>
       </c>
@@ -25609,7 +25554,7 @@
         <v>10044</v>
       </c>
     </row>
-    <row r="39" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:226">
       <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
@@ -26289,7 +26234,7 @@
         <v>81480</v>
       </c>
     </row>
-    <row r="40" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:226">
       <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
@@ -26969,7 +26914,7 @@
         <v>3932</v>
       </c>
     </row>
-    <row r="41" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:226">
       <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
@@ -27649,7 +27594,7 @@
         <v>2540</v>
       </c>
     </row>
-    <row r="42" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:226">
       <c r="A42" s="1" t="s">
         <v>43</v>
       </c>
@@ -28329,7 +28274,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="43" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:226">
       <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
@@ -29009,7 +28954,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="44" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:226">
       <c r="A44" s="1" t="s">
         <v>45</v>
       </c>
@@ -29689,7 +29634,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="45" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:226">
       <c r="A45" s="1" t="s">
         <v>46</v>
       </c>
@@ -30369,7 +30314,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="46" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:226">
       <c r="A46" s="1" t="s">
         <v>47</v>
       </c>
@@ -31049,7 +30994,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="47" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:226">
       <c r="A47" s="1" t="s">
         <v>48</v>
       </c>
@@ -31729,7 +31674,7 @@
         <v>394195</v>
       </c>
     </row>
-    <row r="48" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:226">
       <c r="A48" s="1" t="s">
         <v>49</v>
       </c>
@@ -32409,7 +32354,7 @@
         <v>15054</v>
       </c>
     </row>
-    <row r="49" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:226">
       <c r="A49" s="1" t="s">
         <v>50</v>
       </c>
@@ -33089,7 +33034,7 @@
         <v>19040</v>
       </c>
     </row>
-    <row r="50" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:226">
       <c r="A50" s="1" t="s">
         <v>51</v>
       </c>
@@ -33769,7 +33714,7 @@
         <v>1023735</v>
       </c>
     </row>
-    <row r="51" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:226">
       <c r="A51" s="1" t="s">
         <v>52</v>
       </c>
@@ -34449,7 +34394,7 @@
         <v>8246</v>
       </c>
     </row>
-    <row r="52" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:226">
       <c r="A52" s="1" t="s">
         <v>53</v>
       </c>
@@ -35129,7 +35074,7 @@
         <v>17306</v>
       </c>
     </row>
-    <row r="53" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:226">
       <c r="A53" s="1" t="s">
         <v>54</v>
       </c>
@@ -35809,7 +35754,7 @@
         <v>5288</v>
       </c>
     </row>
-    <row r="54" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:226">
       <c r="A54" s="1" t="s">
         <v>55</v>
       </c>
@@ -36489,7 +36434,7 @@
         <v>26022</v>
       </c>
     </row>
-    <row r="55" spans="1:226" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:226">
       <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
@@ -37171,76 +37116,76 @@
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AP1:AR1"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="AY1:BA1"/>
+    <mergeCell ref="BB1:BD1"/>
+    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="BH1:BJ1"/>
+    <mergeCell ref="BK1:BM1"/>
+    <mergeCell ref="BN1:BP1"/>
+    <mergeCell ref="BQ1:BS1"/>
+    <mergeCell ref="BT1:BV1"/>
+    <mergeCell ref="BW1:BY1"/>
+    <mergeCell ref="BZ1:CB1"/>
+    <mergeCell ref="CC1:CE1"/>
+    <mergeCell ref="CF1:CH1"/>
+    <mergeCell ref="CI1:CK1"/>
+    <mergeCell ref="CL1:CN1"/>
+    <mergeCell ref="CO1:CQ1"/>
+    <mergeCell ref="CR1:CT1"/>
+    <mergeCell ref="CU1:CW1"/>
+    <mergeCell ref="CX1:CZ1"/>
+    <mergeCell ref="DA1:DC1"/>
+    <mergeCell ref="DD1:DF1"/>
+    <mergeCell ref="DG1:DI1"/>
+    <mergeCell ref="DJ1:DL1"/>
+    <mergeCell ref="DM1:DO1"/>
+    <mergeCell ref="DP1:DR1"/>
+    <mergeCell ref="DS1:DU1"/>
+    <mergeCell ref="DV1:DX1"/>
+    <mergeCell ref="DY1:EA1"/>
+    <mergeCell ref="EB1:ED1"/>
+    <mergeCell ref="EE1:EG1"/>
+    <mergeCell ref="EH1:EJ1"/>
+    <mergeCell ref="EK1:EM1"/>
+    <mergeCell ref="EN1:EP1"/>
+    <mergeCell ref="EQ1:ES1"/>
+    <mergeCell ref="ET1:EV1"/>
+    <mergeCell ref="EW1:EY1"/>
+    <mergeCell ref="EZ1:FB1"/>
+    <mergeCell ref="FC1:FE1"/>
+    <mergeCell ref="FF1:FH1"/>
+    <mergeCell ref="FI1:FK1"/>
+    <mergeCell ref="FL1:FN1"/>
+    <mergeCell ref="FO1:FR1"/>
+    <mergeCell ref="FS1:FV1"/>
+    <mergeCell ref="FW1:FZ1"/>
+    <mergeCell ref="GA1:GD1"/>
+    <mergeCell ref="GE1:GH1"/>
+    <mergeCell ref="GI1:GL1"/>
+    <mergeCell ref="GM1:GP1"/>
+    <mergeCell ref="GQ1:GT1"/>
+    <mergeCell ref="GU1:GX1"/>
     <mergeCell ref="GY1:HB1"/>
     <mergeCell ref="HC1:HF1"/>
     <mergeCell ref="HG1:HJ1"/>
     <mergeCell ref="HK1:HN1"/>
     <mergeCell ref="HO1:HR1"/>
-    <mergeCell ref="GE1:GH1"/>
-    <mergeCell ref="GI1:GL1"/>
-    <mergeCell ref="GM1:GP1"/>
-    <mergeCell ref="GQ1:GT1"/>
-    <mergeCell ref="GU1:GX1"/>
-    <mergeCell ref="FL1:FN1"/>
-    <mergeCell ref="FO1:FR1"/>
-    <mergeCell ref="FS1:FV1"/>
-    <mergeCell ref="FW1:FZ1"/>
-    <mergeCell ref="GA1:GD1"/>
-    <mergeCell ref="EW1:EY1"/>
-    <mergeCell ref="EZ1:FB1"/>
-    <mergeCell ref="FC1:FE1"/>
-    <mergeCell ref="FF1:FH1"/>
-    <mergeCell ref="FI1:FK1"/>
-    <mergeCell ref="EH1:EJ1"/>
-    <mergeCell ref="EK1:EM1"/>
-    <mergeCell ref="EN1:EP1"/>
-    <mergeCell ref="EQ1:ES1"/>
-    <mergeCell ref="ET1:EV1"/>
-    <mergeCell ref="DS1:DU1"/>
-    <mergeCell ref="DV1:DX1"/>
-    <mergeCell ref="DY1:EA1"/>
-    <mergeCell ref="EB1:ED1"/>
-    <mergeCell ref="EE1:EG1"/>
-    <mergeCell ref="DD1:DF1"/>
-    <mergeCell ref="DG1:DI1"/>
-    <mergeCell ref="DJ1:DL1"/>
-    <mergeCell ref="DM1:DO1"/>
-    <mergeCell ref="DP1:DR1"/>
-    <mergeCell ref="CO1:CQ1"/>
-    <mergeCell ref="CR1:CT1"/>
-    <mergeCell ref="CU1:CW1"/>
-    <mergeCell ref="CX1:CZ1"/>
-    <mergeCell ref="DA1:DC1"/>
-    <mergeCell ref="BZ1:CB1"/>
-    <mergeCell ref="CC1:CE1"/>
-    <mergeCell ref="CF1:CH1"/>
-    <mergeCell ref="CI1:CK1"/>
-    <mergeCell ref="CL1:CN1"/>
-    <mergeCell ref="BK1:BM1"/>
-    <mergeCell ref="BN1:BP1"/>
-    <mergeCell ref="BQ1:BS1"/>
-    <mergeCell ref="BT1:BV1"/>
-    <mergeCell ref="BW1:BY1"/>
-    <mergeCell ref="AV1:AX1"/>
-    <mergeCell ref="AY1:BA1"/>
-    <mergeCell ref="BB1:BD1"/>
-    <mergeCell ref="BE1:BG1"/>
-    <mergeCell ref="BH1:BJ1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AP1:AR1"/>
-    <mergeCell ref="AS1:AU1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
